--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D78A5-63DF-4693-BD31-C9881969698A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D582F5-82B0-4893-8584-9F036C795CFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>プログラムID</t>
     <phoneticPr fontId="1"/>
@@ -48,16 +48,6 @@
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>着手中</t>
-    <rPh sb="0" eb="2">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
